--- a/lab1/Punkty/punkty_1.xlsx
+++ b/lab1/Punkty/punkty_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,125 +434,1120 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Kryterium 1_Min</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Kryterium 2_Min</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Kryterium 3_Min</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="n">
+        <v>0.9167705345654587</v>
       </c>
       <c r="B2" t="n">
-        <v>1.857670069714532</v>
+        <v>0.4955793084689034</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9295377028889152</v>
+        <v>0.2837940753871473</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="n">
+        <v>-0.4644302812601244</v>
       </c>
       <c r="B3" t="n">
-        <v>0.403144013258553</v>
+        <v>3.524562147713412</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2378838580296408</v>
+        <v>2.143197332554148</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="n">
+        <v>1.90291786507882</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2420865614466906</v>
+        <v>-0.8630840554697599</v>
       </c>
       <c r="C4" t="n">
-        <v>2.456870529907264</v>
+        <v>0.2265966698127461</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="n">
+        <v>-0.02252519039452139</v>
       </c>
       <c r="B5" t="n">
-        <v>1.808259683715715</v>
+        <v>1.554754520567993</v>
       </c>
       <c r="C5" t="n">
-        <v>1.051540669062841</v>
+        <v>0.4660155537084008</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="n">
+        <v>1.2446067585803</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1665100061002402</v>
+        <v>-0.02336251032209335</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8629924544622668</v>
+        <v>1.532611459363789</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="n">
+        <v>2.195149907484264</v>
       </c>
       <c r="B7" t="n">
-        <v>1.704045795879244</v>
+        <v>1.515525239785652</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01392150685099993</v>
+        <v>2.580816069265364</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="n">
+        <v>-2.22028840588377</v>
       </c>
       <c r="B8" t="n">
-        <v>0.290294830104157</v>
+        <v>0.8643719311911721</v>
       </c>
       <c r="C8" t="n">
-        <v>4.349595624818047</v>
+        <v>-1.045750300834425</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="n">
+        <v>2.359090960232831</v>
       </c>
       <c r="B9" t="n">
-        <v>1.32545937992426</v>
+        <v>2.417591925788164</v>
       </c>
       <c r="C9" t="n">
-        <v>1.720287630641827</v>
+        <v>1.874869340326526</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="n">
+        <v>0.8937785536920605</v>
       </c>
       <c r="B10" t="n">
-        <v>1.483547975758392</v>
+        <v>1.539659530168949</v>
       </c>
       <c r="C10" t="n">
-        <v>2.199872265088997</v>
+        <v>2.016373538208798</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="n">
+        <v>2.547693652567353</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2372131860244817</v>
+        <v>2.806996879353946</v>
       </c>
       <c r="C11" t="n">
-        <v>4.208263645437773</v>
+        <v>-0.6417048133351368</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-0.6035097663957636</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2.487994933745905</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.8543583167346946</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.408395545899544</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2.001827421296527</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.428500825469785</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.2061621582779706</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.996920271521229</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5236743581879109</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.1089672517168168</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.632045712255245</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-1.154182294131469</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.6233577912432899</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.09211296728004137</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.1312831198191073</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2.054653116341771</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6949980928344821</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9568485576646122</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.7224632143772187</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.323871174618714</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8429845612627729</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.9828012810524938</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8558497130355063</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.631927622167443</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>-0.6296552385160725</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2.685509524692353</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7534817953030106</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>-1.049924513530136</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-1.007572349971469</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.26697735952086</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1.295101826342228</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2.438669102502106</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.360942159026599</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.1278680175308637</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.479283913185597</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.3190758229202501</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.4486468410841348</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.623114896521429</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.707648286571586</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.6763571544113451</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.7807376992455961</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.371392322014839</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3.068826962896623</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.199137329145713</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.8065101234437555</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1.659307352562452</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.608883593232507</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.092664643226574</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1.289050401380454</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2.561307888410218</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2.224266512583037</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1.574812397938898</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.629414306795435</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.9626339243398614</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1.157242050727192</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.066539351696275</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.6281551335020056</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1.304713621532644</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1.87871882371316</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.9563911417468589</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2.454731094420285</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2.153675963153395</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.232248243451026</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>-0.1332760605852492</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1.157122126738663</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.668176369453224</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2.59001028121041</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.7952451101904899</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2.310904605227214</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1.882912568666908</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1.351594870187689</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.9934130033536649</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1.870367929848169</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.6874627065301044</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.766745296842435</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.6347225684191871</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1.271764023625078</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.056642618457902</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.4643435616043545</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.6884996275896523</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.439175811854259</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1.841716463427205</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.2149511804577481</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.3273534548643759</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2.594827905299583</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1.260060829076914</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.8418373595364776</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.8427945888793428</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.9709200678627071</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.236409788880168</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2.92730958169321</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1.073222421480918</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.449010142653604</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1.92181801269671</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1.40386408499467</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.2526279500568431</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.04119290811262255</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1.91951117423711</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.5003217304345063</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.1428172339020696</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1.267724425536722</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.7454558965049671</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1.996949512602058</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1.601283874739477</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.399366513865559</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>-0.9638678770538212</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.3093254905894903</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.898192775502341</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2.304135233922416</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.8688076563080911</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.4930280023055699</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>-0.7137922838165878</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2.0180922511245</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.3014706376453508</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.524627283559489</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2.26647301819836</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.453996641772707</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>-0.5037215590623356</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1.058453447796586</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.2359259771287716</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2.064897203641332</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1.680428117218851</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.145807814309868</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>-0.9733961070452184</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.7233931569683409</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.9168280880867479</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1.423863673699666</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1.834530467474262</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2.833498439441285</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.4380758052591049</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.7014139241881037</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2.814726600253734</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.6598511089636799</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-0.9360392575591761</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.8300078144913142</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.164099329573815</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2.396215163231468</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1.422208735597296</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1.81713463489034</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.5670691718869394</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1.331614448631485</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1.207011755484704</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.6656712399657211</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1.562711376085556</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.3268476719124696</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-0.4217286547641013</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1.875676353699622</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.8613683191180652</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1.242753026756276</v>
+      </c>
+      <c r="C61" t="n">
+        <v>3.092136423832637</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.8370646005323059</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1.952288690738966</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1.813604187980789</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1.946431676886766</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.87128822890902</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2.194079535451931</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>2.042614834650323</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.9619632245172245</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1.582811227961495</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.9496517414276268</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1.619368330929405</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1.173133108979562</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.8022894845801967</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1.561543499600908</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1.951432174777107</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1.803682437871445</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.7931401884278368</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1.615745465559952</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1.798915997224903</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1.083133619215837</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2.398103475996944</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.6810305245891349</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1.107275090528499</v>
+      </c>
+      <c r="C69" t="n">
+        <v>3.979714683903967</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.5195938836181209</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1.070004798707844</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.4155485953959112</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>-0.3175479650916326</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-0.5828078255367095</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.5702171290298046</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1.103884691580883</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1.546047893885365</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.1368537993236854</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1.826037089481949</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.8171804342224429</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.5721210088176518</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1.112570474808433</v>
+      </c>
+      <c r="B74" t="n">
+        <v>2.382446963251091</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2.040171434589496</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2.317115425793123</v>
+      </c>
+      <c r="B75" t="n">
+        <v>2.263954898979161</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.01788903435125255</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.3761804744064398</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1.222825098490256</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2.534921576612817</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1.943695016593792</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1.915635421071137</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1.651678667468805</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.5688609312525423</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-0.06741410525860791</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1.776133835874925</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.04420566365191536</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-0.2961820165513998</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1.748547501722731</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.8896709298004882</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2.272699963950003</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1.700721143458239</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1.87390046551902</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-0.2293486580884527</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1.501209339609362</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.06255164287257231</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1.3211842042552</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1.033408424779789</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>3.219604542081104</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.9260443399474712</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1.607746183726336</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1.449454017495355</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2.508370808169932</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2.546106103993058</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1.488432992085582</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.09107262773085334</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1.864014313067735</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>2.363468882493757</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1.996086036728618</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2.760948518563414</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>-0.2249203039943548</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1.894690653872686</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2.649783736259319</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>-0.01097557512759706</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-0.2119913167027963</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.253378592057027</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>2.335983766995861</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.3457040121511882</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.9281073891150944</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.2454491380852323</v>
+      </c>
+      <c r="B90" t="n">
+        <v>3.891229575084044</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1.023102336626955</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.8345787691695794</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.3171940412640835</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.8382111742231935</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1.974673617235458</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.4479746750895121</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1.754649672983385</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.7112872775718402</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1.412217361193496</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.02939230565515683</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1.641247829195871</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.139205195668765</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1.433659586854041</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1.582038264022295</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.4494627466369842</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2.12939566871074</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.8187926813590001</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-0.2144815206028701</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1.035653541932655</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>-0.01967363867915739</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.7386364113996806</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-0.4363851553452758</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.1265568071378143</v>
+      </c>
+      <c r="B98" t="n">
+        <v>2.243482482977365</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.05821676909794271</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>-0.3694468622491911</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.7481887661014948</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.8142838193497134</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1.230170878902587</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.1026553049836134</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1.763571850200622</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>-1.011351226051973</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1.585936352397493</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1.056725618954896</v>
       </c>
     </row>
   </sheetData>
